--- a/biology/Mycologie/Penicillium_notatum/Penicillium_notatum.xlsx
+++ b/biology/Mycologie/Penicillium_notatum/Penicillium_notatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium notatum, également connu sous le nom de Penicillium chrysogenum, est une espèce de champignons du genre Penicillium, célèbre pour être à l'origine de la découverte de la pénicilline par le docteur Alexander Fleming. Penicillium est connu pour être la moisissure bleu-vert que l'on retrouve sur le pain ou les fruits moisis ainsi que sur certains fromages.
 </t>
@@ -511,7 +523,9 @@
           <t>Découverte de la pénicilline</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 3 septembre 1928, le docteur Fleming, alors âgé de 47 ans, revient de vacances et retrouve son laboratoire du Saint-Mary's Hospital à Londres. Il retrouve alors les boîtes de Petri où il faisait pousser des cultures de staphylocoques dans le but d'étudier l'effet antibactérien des lysozymes, une variété d'enzymes se trouvant dans les larmes et la salive. Il a la mauvaise surprise de voir ses boites envahies par des colonies cotonneuses de moisissure d'un blanc verdâtre. Elles ont été contaminées par les souches d'un champignon microscopique, le Penicillium notatum, qu'utilise son voisin de paillasse, un jeune mycologue irlandais, Charles J. Latouche, qui travaille sur cette espèce de champignons, qui entraîne des allergies chez les patients asthmatiques.
 Alors qu'il doit désinfecter ces boîtes contaminées, Fleming s'aperçoit qu'autour des colonies de moisissure, il existe une zone circulaire dans laquelle le staphylocoque n'a pas poussé. Il émet l'hypothèse qu'une substance sécrétée par le champignon en est responsable et lui donne le nom de pénicilline.
